--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H2">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I2">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J2">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N2">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O2">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P2">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q2">
-        <v>3330.587642904351</v>
+        <v>48.76300475707234</v>
       </c>
       <c r="R2">
-        <v>3330.587642904351</v>
+        <v>438.8670428136511</v>
       </c>
       <c r="S2">
-        <v>0.1553767590144962</v>
+        <v>0.002137814389121886</v>
       </c>
       <c r="T2">
-        <v>0.1553767590144962</v>
+        <v>0.002137814389121885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H3">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I3">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J3">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N3">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O3">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P3">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q3">
-        <v>3625.715386128006</v>
+        <v>53.093840454908</v>
       </c>
       <c r="R3">
-        <v>3625.715386128006</v>
+        <v>477.8445640941721</v>
       </c>
       <c r="S3">
-        <v>0.1691448975996037</v>
+        <v>0.002327682157071788</v>
       </c>
       <c r="T3">
-        <v>0.1691448975996037</v>
+        <v>0.002327682157071787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H4">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I4">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J4">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N4">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O4">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P4">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q4">
-        <v>6765.576093103573</v>
+        <v>101.0730207225213</v>
       </c>
       <c r="R4">
-        <v>6765.576093103573</v>
+        <v>909.6571865026922</v>
       </c>
       <c r="S4">
-        <v>0.3156239675757961</v>
+        <v>0.004431132969124144</v>
       </c>
       <c r="T4">
-        <v>0.3156239675757961</v>
+        <v>0.00443113296912414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H5">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I5">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J5">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N5">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O5">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P5">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q5">
-        <v>6859.882154738631</v>
+        <v>102.0995629980213</v>
       </c>
       <c r="R5">
-        <v>6859.882154738631</v>
+        <v>918.8960669821922</v>
       </c>
       <c r="S5">
-        <v>0.3200234825513273</v>
+        <v>0.004476137514240644</v>
       </c>
       <c r="T5">
-        <v>0.3200234825513273</v>
+        <v>0.004476137514240642</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>99.9630591503899</v>
+        <v>1.459193</v>
       </c>
       <c r="H6">
-        <v>99.9630591503899</v>
+        <v>4.377579000000001</v>
       </c>
       <c r="I6">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="J6">
-        <v>0.9760146330010758</v>
+        <v>0.01359248715138807</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.39783227538664</v>
+        <v>3.434611</v>
       </c>
       <c r="N6">
-        <v>3.39783227538664</v>
+        <v>10.303833</v>
       </c>
       <c r="O6">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="P6">
-        <v>0.01623492694072648</v>
+        <v>0.01616482100607856</v>
       </c>
       <c r="Q6">
-        <v>339.6577087275786</v>
+        <v>5.011760328923001</v>
       </c>
       <c r="R6">
-        <v>339.6577087275786</v>
+        <v>45.10584296030702</v>
       </c>
       <c r="S6">
-        <v>0.01584552625985243</v>
+        <v>0.0002197201218296108</v>
       </c>
       <c r="T6">
-        <v>0.01584552625985243</v>
+        <v>0.0002197201218296107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.45657245187493</v>
+        <v>103.0385286666667</v>
       </c>
       <c r="H7">
-        <v>2.45657245187493</v>
+        <v>309.115586</v>
       </c>
       <c r="I7">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857745</v>
       </c>
       <c r="J7">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857743</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.3181844494538</v>
+        <v>33.41778966666667</v>
       </c>
       <c r="N7">
-        <v>33.3181844494538</v>
+        <v>100.253369</v>
       </c>
       <c r="O7">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915017</v>
       </c>
       <c r="P7">
-        <v>0.1591951122051721</v>
+        <v>0.1572791178915016</v>
       </c>
       <c r="Q7">
-        <v>81.84853406501588</v>
+        <v>3443.319878545471</v>
       </c>
       <c r="R7">
-        <v>81.84853406501588</v>
+        <v>30989.87890690924</v>
       </c>
       <c r="S7">
-        <v>0.00381835319067596</v>
+        <v>0.1509582688633703</v>
       </c>
       <c r="T7">
-        <v>0.00381835319067596</v>
+        <v>0.1509582688633702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.45657245187493</v>
+        <v>103.0385286666667</v>
       </c>
       <c r="H8">
-        <v>2.45657245187493</v>
+        <v>309.115586</v>
       </c>
       <c r="I8">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857745</v>
       </c>
       <c r="J8">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857743</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.2705525115361</v>
+        <v>36.385756</v>
       </c>
       <c r="N8">
-        <v>36.2705525115361</v>
+        <v>109.157268</v>
       </c>
       <c r="O8">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="P8">
-        <v>0.1733016000789993</v>
+        <v>0.1712476996407596</v>
       </c>
       <c r="Q8">
-        <v>89.10124011412265</v>
+        <v>3749.134762664339</v>
       </c>
       <c r="R8">
-        <v>89.10124011412265</v>
+        <v>33742.21286397905</v>
       </c>
       <c r="S8">
-        <v>0.004156702479395579</v>
+        <v>0.1643654709612299</v>
       </c>
       <c r="T8">
-        <v>0.004156702479395579</v>
+        <v>0.1643654709612298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.45657245187493</v>
+        <v>103.0385286666667</v>
       </c>
       <c r="H9">
-        <v>2.45657245187493</v>
+        <v>309.115586</v>
       </c>
       <c r="I9">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857745</v>
       </c>
       <c r="J9">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857743</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.68076277982919</v>
+        <v>69.26638266666667</v>
       </c>
       <c r="N9">
-        <v>67.68076277982919</v>
+        <v>207.799148</v>
       </c>
       <c r="O9">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463135</v>
       </c>
       <c r="P9">
-        <v>0.3233803642936245</v>
+        <v>0.3259986873463134</v>
       </c>
       <c r="Q9">
-        <v>166.2626973668105</v>
+        <v>7137.106156035637</v>
       </c>
       <c r="R9">
-        <v>166.2626973668105</v>
+        <v>64233.95540432073</v>
       </c>
       <c r="S9">
-        <v>0.007756396717828366</v>
+        <v>0.3128972119965692</v>
       </c>
       <c r="T9">
-        <v>0.007756396717828366</v>
+        <v>0.3128972119965689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.45657245187493</v>
+        <v>103.0385286666667</v>
       </c>
       <c r="H10">
-        <v>2.45657245187493</v>
+        <v>309.115586</v>
       </c>
       <c r="I10">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857745</v>
       </c>
       <c r="J10">
-        <v>0.02398536699892413</v>
+        <v>0.9598112634857743</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.6241718995239</v>
+        <v>69.96988266666666</v>
       </c>
       <c r="N10">
-        <v>68.6241718995239</v>
+        <v>209.909648</v>
       </c>
       <c r="O10">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153468</v>
       </c>
       <c r="P10">
-        <v>0.3278879964814775</v>
+        <v>0.3293096741153467</v>
       </c>
       <c r="Q10">
-        <v>168.5802502211001</v>
+        <v>7209.593760952636</v>
       </c>
       <c r="R10">
-        <v>168.5802502211001</v>
+        <v>64886.34384857373</v>
       </c>
       <c r="S10">
-        <v>0.007864513930150183</v>
+        <v>0.3160751343907396</v>
       </c>
       <c r="T10">
-        <v>0.007864513930150183</v>
+        <v>0.3160751343907395</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>103.0385286666667</v>
+      </c>
+      <c r="H11">
+        <v>309.115586</v>
+      </c>
+      <c r="I11">
+        <v>0.9598112634857745</v>
+      </c>
+      <c r="J11">
+        <v>0.9598112634857743</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.434611</v>
+      </c>
+      <c r="N11">
+        <v>10.303833</v>
+      </c>
+      <c r="O11">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="P11">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="Q11">
+        <v>353.8972639823487</v>
+      </c>
+      <c r="R11">
+        <v>3185.075375841138</v>
+      </c>
+      <c r="S11">
+        <v>0.01551517727386565</v>
+      </c>
+      <c r="T11">
+        <v>0.01551517727386565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H12">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J12">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>33.41778966666667</v>
+      </c>
+      <c r="N12">
+        <v>100.253369</v>
+      </c>
+      <c r="O12">
+        <v>0.1572791178915017</v>
+      </c>
+      <c r="P12">
+        <v>0.1572791178915016</v>
+      </c>
+      <c r="Q12">
+        <v>95.41396065015844</v>
+      </c>
+      <c r="R12">
+        <v>858.725645851426</v>
+      </c>
+      <c r="S12">
+        <v>0.00418303463900949</v>
+      </c>
+      <c r="T12">
+        <v>0.004183034639009487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.45657245187493</v>
-      </c>
-      <c r="H11">
-        <v>2.45657245187493</v>
-      </c>
-      <c r="I11">
-        <v>0.02398536699892413</v>
-      </c>
-      <c r="J11">
-        <v>0.02398536699892413</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.39783227538664</v>
-      </c>
-      <c r="N11">
-        <v>3.39783227538664</v>
-      </c>
-      <c r="O11">
-        <v>0.01623492694072648</v>
-      </c>
-      <c r="P11">
-        <v>0.01623492694072648</v>
-      </c>
-      <c r="Q11">
-        <v>8.34702116380633</v>
-      </c>
-      <c r="R11">
-        <v>8.34702116380633</v>
-      </c>
-      <c r="S11">
-        <v>0.0003894006808740451</v>
-      </c>
-      <c r="T11">
-        <v>0.0003894006808740451</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H13">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J13">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>36.385756</v>
+      </c>
+      <c r="N13">
+        <v>109.157268</v>
+      </c>
+      <c r="O13">
+        <v>0.1712476996407596</v>
+      </c>
+      <c r="P13">
+        <v>0.1712476996407596</v>
+      </c>
+      <c r="Q13">
+        <v>103.8880526162746</v>
+      </c>
+      <c r="R13">
+        <v>934.9924735464718</v>
+      </c>
+      <c r="S13">
+        <v>0.004554546522457934</v>
+      </c>
+      <c r="T13">
+        <v>0.004554546522457932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H14">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J14">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>69.26638266666667</v>
+      </c>
+      <c r="N14">
+        <v>207.799148</v>
+      </c>
+      <c r="O14">
+        <v>0.3259986873463135</v>
+      </c>
+      <c r="P14">
+        <v>0.3259986873463134</v>
+      </c>
+      <c r="Q14">
+        <v>197.7683137053324</v>
+      </c>
+      <c r="R14">
+        <v>1779.914823347992</v>
+      </c>
+      <c r="S14">
+        <v>0.008670342380620241</v>
+      </c>
+      <c r="T14">
+        <v>0.008670342380620234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H15">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J15">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>69.96988266666666</v>
+      </c>
+      <c r="N15">
+        <v>209.909648</v>
+      </c>
+      <c r="O15">
+        <v>0.3293096741153468</v>
+      </c>
+      <c r="P15">
+        <v>0.3293096741153467</v>
+      </c>
+      <c r="Q15">
+        <v>199.7769361183324</v>
+      </c>
+      <c r="R15">
+        <v>1797.992425064992</v>
+      </c>
+      <c r="S15">
+        <v>0.008758402210366504</v>
+      </c>
+      <c r="T15">
+        <v>0.0087584022103665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.855184666666666</v>
+      </c>
+      <c r="H16">
+        <v>8.565553999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="J16">
+        <v>0.02659624936283746</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.434611</v>
+      </c>
+      <c r="N16">
+        <v>10.303833</v>
+      </c>
+      <c r="O16">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="P16">
+        <v>0.01616482100607856</v>
+      </c>
+      <c r="Q16">
+        <v>9.806448663164666</v>
+      </c>
+      <c r="R16">
+        <v>88.258037968482</v>
+      </c>
+      <c r="S16">
+        <v>0.0004299236103832986</v>
+      </c>
+      <c r="T16">
+        <v>0.0004299236103832983</v>
       </c>
     </row>
   </sheetData>
